--- a/Finale/Merged_Family_table.xlsx
+++ b/Finale/Merged_Family_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/faraz/Downloads/csvMerger_aimon/Finale/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C5DC8F6B-3139-4044-BF51-65999F82F1E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90298F01-D571-0342-81A6-BC37FECBDFDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{8E9E9DD2-2D3C-F742-8C16-19E5A428B203}"/>
   </bookViews>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14922" uniqueCount="2199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14943" uniqueCount="2199">
   <si>
     <t>Column1</t>
   </si>
@@ -7153,8 +7153,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E529F91D-5F1D-1142-BF94-BCA7657CF388}">
   <dimension ref="A1:I251"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A240" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView tabSelected="1" topLeftCell="A213" workbookViewId="0">
+      <selection activeCell="C249" sqref="C249:C251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14367,13 +14367,27 @@
       <c r="B249" s="1" t="s">
         <v>2194</v>
       </c>
-      <c r="C249" s="1"/>
-      <c r="D249" s="1"/>
-      <c r="E249" s="1"/>
-      <c r="F249" s="1"/>
-      <c r="G249" s="1"/>
-      <c r="H249" s="1"/>
-      <c r="I249" s="1"/>
+      <c r="C249" s="1" t="s">
+        <v>2193</v>
+      </c>
+      <c r="D249" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="E249" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F249" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G249" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H249" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I249" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
@@ -14382,13 +14396,27 @@
       <c r="B250" s="1" t="s">
         <v>2196</v>
       </c>
-      <c r="C250" s="1"/>
-      <c r="D250" s="1"/>
-      <c r="E250" s="1"/>
-      <c r="F250" s="1"/>
-      <c r="G250" s="1"/>
-      <c r="H250" s="1"/>
-      <c r="I250" s="1"/>
+      <c r="C250" s="1" t="s">
+        <v>2195</v>
+      </c>
+      <c r="D250" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E250" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F250" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G250" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H250" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I250" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
@@ -14397,13 +14425,27 @@
       <c r="B251" s="1" t="s">
         <v>2198</v>
       </c>
-      <c r="C251" s="1"/>
-      <c r="D251" s="1"/>
-      <c r="E251" s="1"/>
-      <c r="F251" s="1"/>
-      <c r="G251" s="1"/>
-      <c r="H251" s="1"/>
-      <c r="I251" s="1"/>
+      <c r="C251" s="1" t="s">
+        <v>2197</v>
+      </c>
+      <c r="D251" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="E251" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F251" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G251" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H251" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I251" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14417,7 +14459,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AC05ECC-151D-2840-9084-764A002D50EC}">
   <dimension ref="A1:G1812"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A351" workbookViewId="0">
+      <selection activeCell="A377" sqref="A377:G377"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
